--- a/2025/11/2025-11-03/03_fixtures.xlsx
+++ b/2025/11/2025-11-03/03_fixtures.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Gharafa SC - Al-Hilal SFC : 1:2'</t>
+          <t>Al-Gharafa SC - Al-Hilal SFC ✓: 1:2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -602,6 +602,17 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -896,7 +907,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vasas FC  - Videoton Fehérvár: 18:00</t>
+          <t>Vasas FC  - Videoton FC Fehérvár: 18:00</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -924,7 +935,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vasas FC  - Videoton FC Fehérvár: 18:00</t>
+          <t>Vasas FC  - Videoton Fehérvár: 18:00</t>
         </is>
       </c>
       <c r="C16" t="n">
